--- a/Manure_allocation_dataset.xlsx
+++ b/Manure_allocation_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\O meu disco\LULCC_PhD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCD0CC8-3A2C-4282-A6DA-72EFBD61CC44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0DA7C3-63E5-4629-9648-6BC0302B50B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1099,13 +1099,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1390,7 +1390,7 @@
   <dimension ref="B1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1538,7 +1538,7 @@
       <c r="C12" t="s">
         <v>312</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>314</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1555,7 +1555,7 @@
       <c r="C13" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="3" t="s">
         <v>321</v>
       </c>
@@ -1567,10 +1567,10 @@
       <c r="B14" s="1">
         <v>1998</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>331</v>
       </c>
     </row>
@@ -1578,10 +1578,10 @@
       <c r="B15" s="1">
         <v>1999</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>332</v>
       </c>
     </row>
@@ -1692,10 +1692,10 @@
         <v>310</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
@@ -1718,10 +1718,10 @@
       <c r="B27" s="1">
         <v>2011</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>329</v>
       </c>
     </row>
@@ -1729,10 +1729,10 @@
       <c r="B28" s="1">
         <v>2012</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>328</v>
       </c>
     </row>
